--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B44C360-3240-A44B-B8D5-4720B672DC83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4C45A-A922-734F-8913-E5379537D61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15800" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="33020" yWindow="4380" windowWidth="27640" windowHeight="15800" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,12 +393,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,12 +406,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB4C45A-A922-734F-8913-E5379537D61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE98E32-CCF4-704D-BBF4-9CF1A0427F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33020" yWindow="4380" windowWidth="27640" windowHeight="15800" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="32000" yWindow="3480" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,6 +414,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE98E32-CCF4-704D-BBF4-9CF1A0427F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BDB5A4-3388-6342-BD9C-5EBED449766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="3480" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -422,6 +422,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BDB5A4-3388-6342-BD9C-5EBED449766D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CFD998-6FE3-924E-8E92-32E76D851DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="3480" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,6 +430,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CFD998-6FE3-924E-8E92-32E76D851DAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8508D2F4-5265-F446-B726-08CD546937BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="3480" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,6 +438,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8508D2F4-5265-F446-B726-08CD546937BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495668B2-31CA-EA45-B52F-211FE0A37C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,6 +446,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495668B2-31CA-EA45-B52F-211FE0A37C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19970371-558F-6145-B1A8-B82613F5E7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,6 +454,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19970371-558F-6145-B1A8-B82613F5E7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18112250-433C-CE4D-B6F4-2630C617CD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,6 +462,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18112250-433C-CE4D-B6F4-2630C617CD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB77793-598F-ED4D-99D9-71CED2A4B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,6 +470,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB77793-598F-ED4D-99D9-71CED2A4B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F54B32-214D-D442-B383-CE526B0ABED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +478,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F54B32-214D-D442-B383-CE526B0ABED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B2A9A-6357-C04A-B47C-8C502EFFB9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="4260" windowWidth="28800" windowHeight="16420" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
+    <workbookView xWindow="33660" yWindow="5440" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,6 +486,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B2A9A-6357-C04A-B47C-8C502EFFB9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45108978-E40C-7C4F-9E79-3533ADC9EE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33660" yWindow="5440" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,6 +494,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_all.xlsx
+++ b/data/GASY_status_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45108978-E40C-7C4F-9E79-3533ADC9EE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDD0E62-1560-6B49-8356-E5FCEBA54A33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33660" yWindow="5440" windowWidth="28800" windowHeight="16160" xr2:uid="{3C916DE0-195B-2A4F-AB3E-F4618B8BB61D}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D24135B-7C4E-9B44-8B3B-A592D6651794}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,6 +502,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
